--- a/DATA/RAW/Gas_price_per_kWh.xlsx
+++ b/DATA/RAW/Gas_price_per_kWh.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Households_energy_wellbeing_local_code\Households_energy_wellbeing\DATA\RAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEDFFB3-62F5-4DDC-8178-DA112207C31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AADF73-1119-4EAB-876A-F8FB1DE26966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-10770" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="5" r:id="rId1"/>
-    <sheet name="2015_gas_price_per_kWh" sheetId="2" r:id="rId2"/>
-    <sheet name="2016_gas_price_per_kWh" sheetId="6" r:id="rId3"/>
-    <sheet name="2017_gas_price_per_kWh" sheetId="7" r:id="rId4"/>
-    <sheet name="2018_gas_price_per_kWh" sheetId="8" r:id="rId5"/>
-    <sheet name="2019_gas_price_per_kWh" sheetId="9" r:id="rId6"/>
-    <sheet name="2020_gas_price_per_kWh" sheetId="10" r:id="rId7"/>
-    <sheet name="2021_gas_price_per_kWh" sheetId="11" r:id="rId8"/>
+    <sheet name="2014_gas_price_per_kWh" sheetId="12" r:id="rId2"/>
+    <sheet name="2015_gas_price_per_kWh" sheetId="2" r:id="rId3"/>
+    <sheet name="2016_gas_price_per_kWh" sheetId="6" r:id="rId4"/>
+    <sheet name="2017_gas_price_per_kWh" sheetId="7" r:id="rId5"/>
+    <sheet name="2018_gas_price_per_kWh" sheetId="8" r:id="rId6"/>
+    <sheet name="2019_gas_price_per_kWh" sheetId="9" r:id="rId7"/>
+    <sheet name="2020_gas_price_per_kWh" sheetId="10" r:id="rId8"/>
+    <sheet name="2021_gas_price_per_kWh" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>Payment_method_value_num</t>
   </si>
@@ -303,9 +304,6 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -314,6 +312,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -622,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F210A116-F66F-41D2-A95B-98A72E060D6F}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -662,15 +663,15 @@
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
@@ -831,48 +832,48 @@
       <c r="M11" s="11"/>
     </row>
     <row r="14" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>2014</v>
       </c>
       <c r="B15" s="17"/>
@@ -901,7 +902,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>2015</v>
       </c>
       <c r="B16" s="17"/>
@@ -930,7 +931,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>2016</v>
       </c>
       <c r="B17" s="17"/>
@@ -959,7 +960,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <v>2017</v>
       </c>
       <c r="B18" s="17"/>
@@ -988,7 +989,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>2018</v>
       </c>
       <c r="B19" s="17"/>
@@ -1017,7 +1018,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>2019</v>
       </c>
       <c r="B20" s="17"/>
@@ -1046,7 +1047,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>2020</v>
       </c>
       <c r="B21" s="17"/>
@@ -1075,7 +1076,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>2021</v>
       </c>
       <c r="B22" s="17"/>
@@ -1104,7 +1105,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>2022</v>
       </c>
       <c r="B23" s="17">
@@ -1145,7 +1146,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <v>2023</v>
       </c>
       <c r="B24" s="17">
@@ -1186,7 +1187,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>2024</v>
       </c>
       <c r="B25" s="17">
@@ -1238,6 +1239,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412DCA30-4CB2-4407-92F0-536BC8ED0932}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <f>ROUND(Main!G15/11200, 4)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <f>ROUND(Main!D15/11200, 4)</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <f>ROUND(Main!J15/11200, 4)</f>
+        <v>5.5100000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1245,7 +1313,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1548,7 +1616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF563D3-DCDE-4A9B-A72A-26D78EE538D1}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1859,7 +1927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F0BBD2-4D27-4C37-972A-25E4B4E49BCC}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2170,7 +2238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33760D96-41A2-4D6D-97BD-2015399FDE2A}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2481,7 +2549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56FE9DE-2237-43B9-9D58-31A95E1FEB2D}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2792,7 +2860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFD5E10-7952-4D06-A64D-97F42500256D}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3103,7 +3171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CF2108-63C2-404E-80B3-40FBC54A274C}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>

--- a/DATA/RAW/Gas_price_per_kWh.xlsx
+++ b/DATA/RAW/Gas_price_per_kWh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Households_energy_wellbeing_local_code\Households_energy_wellbeing\DATA\RAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AADF73-1119-4EAB-876A-F8FB1DE26966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7617EBEC-7027-4712-99A6-0342F4BB57A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-10770" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
   <si>
     <t>Payment_method_value_num</t>
   </si>
@@ -77,21 +77,6 @@
   </si>
   <si>
     <t>The method used to calculate these figures does not allow the Department to perfectly determine which tariffs are fixed/capped and which are not.</t>
-  </si>
-  <si>
-    <t>The methodology is dependent on the tariff name explicitly specifying that it is fixed/capped. The comparison between fixed and variable tariffs should be treated with some caution.</t>
-  </si>
-  <si>
-    <t>Figures from 2014 to 2021 inclusive have been calclated from the averge variable unit costs and average fixed costs in table 2.3.4.</t>
-  </si>
-  <si>
-    <t>In the table r indicates revised data. An r in the date column indicates all data in the row has been revised.</t>
-  </si>
-  <si>
-    <t>In the table p indicates provisional data. A p in the date column indicates all data in the row is provisional.</t>
-  </si>
-  <si>
-    <t>Source: Department for Energy Security and Net Zero</t>
   </si>
   <si>
     <t>Standard credit: Fixed tariffs (pounds)</t>
@@ -134,6 +119,18 @@
   </si>
   <si>
     <t xml:space="preserve"> https://www.gov.uk/government/collections/quarterly-energy-prices  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://assets.publishing.service.gov.uk/media/67e3ed4155239fa04d411fc5/table_231.xlsx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <t>Department for Energy Security and Net Zero</t>
   </si>
 </sst>
 </file>
@@ -193,18 +190,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -253,7 +244,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -292,12 +283,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -315,6 +300,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -621,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F210A116-F66F-41D2-A95B-98A72E060D6F}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,7 +634,7 @@
     <col min="13" max="13" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -659,26 +651,26 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+        <v>24</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -695,7 +687,7 @@
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -712,7 +704,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -729,7 +721,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -746,61 +738,58 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>15</v>
-      </c>
+    <row r="7" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -814,15 +803,17 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -831,410 +822,422 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="H14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="I14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="J14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="K14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="L14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="M14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
         <v>2014</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15">
         <f>(0.04654199954987*11200)+98.0188836587237</f>
         <v>619.28927861726766</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15">
         <f>(0.0423071458525511*11200)+85.9942771692793</f>
         <v>559.83431071785162</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15">
         <f>(0.0463521819763419*11200)+97.5917036989395</f>
         <v>616.73614183396876</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17">
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15">
         <f>(0.0440929815476337*11200)+91.0818765671357</f>
         <v>584.92326990063316</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
         <v>2015</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15">
         <f>(0.0441826633130361*11200)+97.074973680749</f>
         <v>591.92080278675326</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17">
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15">
         <f>(0.0400202456654864*11200)+80.0993839014997</f>
         <v>528.32613535494738</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17">
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15">
         <f>(0.0441911509056778*11200)+98.0509575817429</f>
         <v>592.99184772533431</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17">
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15">
         <f>(0.0417496553757279*11200)+87.2947485750131</f>
         <v>554.89088878316556</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="16">
         <v>2016</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15">
         <f>(0.0404195356312942*11200)+96.7922819044096</f>
         <v>549.49108097490466</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15">
         <f>(0.0356173235975374*11200)+79.3180642539186</f>
         <v>478.23208854633754</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17">
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15">
         <f>(0.0409253414878911*11200)+97.9060192080074</f>
         <v>556.2698438723877</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17">
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15">
         <f>(0.0375822179527467*11200)+86.3641891663012</f>
         <v>507.28503023706423</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
+      <c r="A18" s="16">
         <v>2017</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15">
         <f>(0.0397631336384324*11200)+97.2199088225742</f>
         <v>542.56700557301713</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17">
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15">
         <f>(0.0353942129139858*11200)+79.5295558633001</f>
         <v>475.94474049994108</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17">
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15">
         <f>(0.0356068634460833*11200)+97.7887593898721</f>
         <v>496.58562998600502</v>
       </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17">
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15">
         <f>(0.0363664608221799*11200)+86.3669395613274</f>
         <v>493.67130076974223</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+      <c r="A19" s="16">
         <v>2018</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15">
         <f>(0.0404066435604779*11200)+109.016940088396</f>
         <v>561.57134796574849</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15">
         <f>(0.0367664069510934*11200)+79.9964261864216</f>
         <v>491.7801840386677</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17">
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15">
         <f>(0.0349828922141822*11200)+95.3268856202185</f>
         <v>487.13527841905915</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17">
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15">
         <f>(0.0371688676604729*11200)+87.6253791319029</f>
         <v>503.91669692919936</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+      <c r="A20" s="16">
         <v>2019</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15">
         <f>(0.0403353472001603*11200)+110.691139006084</f>
         <v>562.44702764787939</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17">
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15">
         <f>(0.0369312562247261*11200)+89.0839646051938</f>
         <v>502.71403432212611</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17">
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15">
         <f>(0.0385164396410727*11200)+110.653044502527</f>
         <v>542.03716848254123</v>
       </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17">
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15">
         <f>(0.0377874550998704*11200)+96.1210640585739</f>
         <v>519.34056117712237</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
+      <c r="A21" s="16">
         <v>2020</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15">
         <f>(0.0388010237394817*11200)+111.343603401312</f>
         <v>545.91506928350702</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17">
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15">
         <f>(0.0344999925379152*11200)+88.5996149904816</f>
         <v>474.9995314151318</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17">
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15">
         <f>(0.0359962439875572*11200)+130.422891403929</f>
         <v>533.5808240645697</v>
       </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17">
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15">
         <f>(0.0355022360271926*11200)+98.5893727925558</f>
         <v>496.21441629711296</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+      <c r="A22" s="16">
         <v>2021</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15">
         <f>(0.0361558727524009*11200)+109.776801708471</f>
         <v>514.72257653536099</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17">
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15">
         <f>(0.0337794144251478*11200)+90.5685478863513</f>
         <v>468.89798944800668</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17">
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15">
         <f>(0.0338012465856868*11200)+127.245822464087</f>
         <v>505.8197842237791</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17">
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15">
         <f>(0.0341755981666232*11200)+98.9967691431617</f>
         <v>481.7634686093416</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
+      <c r="A23" s="16">
         <v>2022</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="15">
         <v>898.72463243071013</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="15">
         <v>1101.6478425319804</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="15">
         <v>1063.357062761741</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="15">
         <v>764.55080361126795</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="15">
         <v>990.43047401888509</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="15">
         <v>912.13717025507719</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="15">
         <v>940.62030735631186</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="15">
         <v>1028.8578427331529</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="15">
         <v>1023.7099861275387</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="15">
         <v>784.99928089593448</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="15">
         <v>1018.3355672624086</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="15">
         <v>952.36599829985198</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
+      <c r="A24" s="16">
         <v>2023</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="15">
         <v>1102.1914508728453</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="15">
         <v>1177.0635572970289</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="15">
         <v>1168.8647811971198</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="15">
         <v>896.41008861037756</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="15">
         <v>1103.0442878974366</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="15">
         <v>1066.5030762077181</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="15">
         <v>1093.8854058562883</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="15">
         <v>1109.3859778664093</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="15">
         <v>1108.2062156861616</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="15">
         <v>943.69384716662296</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="15">
         <v>1119.868284409818</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="15">
         <v>1093.9308228380594</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
+      <c r="A25" s="16">
         <v>2024</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="15">
         <v>849.46569931019258</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="15">
         <v>860.5263980256077</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="15">
         <v>859.89636344168287</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="15">
         <v>794.83618650711855</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="15">
         <v>819.46672961623847</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="15">
         <v>812.97672080027769</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="15">
         <v>790.70935880120169</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="15">
         <v>763.28742416453622</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="15">
         <v>764.24475291903059</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="15">
         <v>797.19657401815016</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="15">
         <v>818.4859124401404</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="15">
         <v>814.19635543523964</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2:H2" r:id="rId1" display=" https://www.gov.uk/government/collections/quarterly-energy-prices  " xr:uid="{A5FBD0D3-CD9C-4F4B-9061-6DA3375A8B6C}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{70C7E826-AB93-4271-889A-BFF0D2BBC0D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1243,7 +1246,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1313,7 +1316,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DATA/RAW/Gas_price_per_kWh.xlsx
+++ b/DATA/RAW/Gas_price_per_kWh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Households_energy_wellbeing_local_code\Households_energy_wellbeing\DATA\RAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7617EBEC-7027-4712-99A6-0342F4BB57A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A0AE12-4538-40BF-948D-459DC77854C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-10770" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/DATA/RAW/Gas_price_per_kWh.xlsx
+++ b/DATA/RAW/Gas_price_per_kWh.xlsx
@@ -1,47 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Households_energy_wellbeing_local_code\Households_energy_wellbeing\DATA\RAW\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A0AE12-4538-40BF-948D-459DC77854C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10770" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="5" r:id="rId1"/>
-    <sheet name="2014_gas_price_per_kWh" sheetId="12" r:id="rId2"/>
-    <sheet name="2015_gas_price_per_kWh" sheetId="2" r:id="rId3"/>
-    <sheet name="2016_gas_price_per_kWh" sheetId="6" r:id="rId4"/>
-    <sheet name="2017_gas_price_per_kWh" sheetId="7" r:id="rId5"/>
-    <sheet name="2018_gas_price_per_kWh" sheetId="8" r:id="rId6"/>
-    <sheet name="2019_gas_price_per_kWh" sheetId="9" r:id="rId7"/>
-    <sheet name="2020_gas_price_per_kWh" sheetId="10" r:id="rId8"/>
-    <sheet name="2021_gas_price_per_kWh" sheetId="11" r:id="rId9"/>
+    <sheet r:id="rId1" sheetId="1" name="Main"/>
+    <sheet r:id="rId2" sheetId="2" name="2014_gas_price_per_kWh"/>
+    <sheet r:id="rId3" sheetId="3" name="2015_gas_price_per_kWh"/>
+    <sheet r:id="rId4" sheetId="4" name="2016_gas_price_per_kWh"/>
+    <sheet r:id="rId5" sheetId="5" name="2017_gas_price_per_kWh"/>
+    <sheet r:id="rId6" sheetId="6" name="2018_gas_price_per_kWh"/>
+    <sheet r:id="rId7" sheetId="7" name="2019_gas_price_per_kWh"/>
+    <sheet r:id="rId8" sheetId="8" name="2020_gas_price_per_kWh"/>
+    <sheet r:id="rId9" sheetId="9" name="2021_gas_price_per_kWh"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>Payment_method_value_num</t>
   </si>
@@ -61,22 +42,22 @@
     <t>pre payment</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Average annual domestic gas bills for fixed and variable tariffs based on consumption of 11,200kWh/year</t>
   </si>
   <si>
-    <t>These figures incorporate the Energy Price Guarantee from October 2022 but do not reflect payments made through the Energy Bills Support Scheme, which provided UK customers with £200 of support in 2022.</t>
+    <t xml:space="preserve">Source: </t>
   </si>
   <si>
-    <t>These are official statistics in development.</t>
+    <t>Department for Energy Security and Net Zero</t>
   </si>
   <si>
-    <t>The tariffs that the Department can identify as being explicitly fixed tariffs are used to calculate fixed tariff bills. All other tariffs are assumed to be variable.</t>
+    <t xml:space="preserve">URL: </t>
   </si>
   <si>
-    <t>The method used to calculate these figures does not allow the Department to perfectly determine which tariffs are fixed/capped and which are not.</t>
+    <t xml:space="preserve">https://assets.publishing.service.gov.uk/media/67e3ed4155239fa04d411fc5/table_231.xlsx </t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
   <si>
     <t>Standard credit: Fixed tariffs (pounds)</t>
@@ -114,35 +95,15 @@
   <si>
     <t>Overall: All Tariffs (pounds)</t>
   </si>
-  <si>
-    <t>Data source:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://www.gov.uk/government/collections/quarterly-energy-prices  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://assets.publishing.service.gov.uk/media/67e3ed4155239fa04d411fc5/table_231.xlsx </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: </t>
-  </si>
-  <si>
-    <t>Department for Energy Security and Net Zero</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,35 +118,27 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -198,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,114 +168,109 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="26">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -333,10 +281,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -374,71 +322,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,7 +414,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -489,11 +437,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -502,13 +450,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -518,7 +466,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -527,7 +475,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -536,7 +484,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -544,10 +492,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -612,651 +560,556 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F210A116-F66F-41D2-A95B-98A72E060D6F}">
-  <dimension ref="A1:N25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="24" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="24" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="24" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="24" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="24" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="24" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="24" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="24" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="24" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="24" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="24" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="24" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="9"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="14"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="44.25" customFormat="1" s="17">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="B8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="21">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22">
+        <f>(0.04654199954987*11200)+98.0188836587237</f>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22">
+        <f>(0.0423071458525511*11200)+85.9942771692793</f>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22">
+        <f>(0.0463521819763419*11200)+97.5917036989395</f>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22">
+        <f>(0.0440929815476337*11200)+91.0818765671357</f>
+      </c>
       <c r="N9" s="13"/>
     </row>
-    <row r="10" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>29</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="21">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22">
+        <f>(0.0441826633130361*11200)+97.074973680749</f>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22">
+        <f>(0.0400202456654864*11200)+80.0993839014997</f>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22">
+        <f>(0.0441911509056778*11200)+98.0509575817429</f>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22">
+        <f>(0.0417496553757279*11200)+87.2947485750131</f>
+      </c>
+      <c r="N10" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="21">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="22"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="D11" s="22">
+        <f>(0.0404195356312942*11200)+96.7922819044096</f>
+      </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15">
-        <f>(0.04654199954987*11200)+98.0188836587237</f>
-        <v>619.28927861726766</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15">
-        <f>(0.0423071458525511*11200)+85.9942771692793</f>
-        <v>559.83431071785162</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15">
-        <f>(0.0463521819763419*11200)+97.5917036989395</f>
-        <v>616.73614183396876</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15">
-        <f>(0.0440929815476337*11200)+91.0818765671357</f>
-        <v>584.92326990063316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15">
-        <f>(0.0441826633130361*11200)+97.074973680749</f>
-        <v>591.92080278675326</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15">
-        <f>(0.0400202456654864*11200)+80.0993839014997</f>
-        <v>528.32613535494738</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15">
-        <f>(0.0441911509056778*11200)+98.0509575817429</f>
-        <v>592.99184772533431</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15">
-        <f>(0.0417496553757279*11200)+87.2947485750131</f>
-        <v>554.89088878316556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15">
-        <f>(0.0404195356312942*11200)+96.7922819044096</f>
-        <v>549.49108097490466</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15">
+      <c r="G11" s="22">
         <f>(0.0356173235975374*11200)+79.3180642539186</f>
-        <v>478.23208854633754</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15">
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22">
         <f>(0.0409253414878911*11200)+97.9060192080074</f>
-        <v>556.2698438723877</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15">
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22">
         <f>(0.0375822179527467*11200)+86.3641891663012</f>
-        <v>507.28503023706423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+      </c>
+      <c r="N11" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="21">
         <v>2017</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22">
         <f>(0.0397631336384324*11200)+97.2199088225742</f>
-        <v>542.56700557301713</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15">
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22">
         <f>(0.0353942129139858*11200)+79.5295558633001</f>
-        <v>475.94474049994108</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15">
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22">
         <f>(0.0356068634460833*11200)+97.7887593898721</f>
-        <v>496.58562998600502</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15">
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22">
         <f>(0.0363664608221799*11200)+86.3669395613274</f>
-        <v>493.67130076974223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      </c>
+      <c r="N12" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="21">
         <v>2018</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22">
         <f>(0.0404066435604779*11200)+109.016940088396</f>
-        <v>561.57134796574849</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15">
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22">
         <f>(0.0367664069510934*11200)+79.9964261864216</f>
-        <v>491.7801840386677</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15">
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22">
         <f>(0.0349828922141822*11200)+95.3268856202185</f>
-        <v>487.13527841905915</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15">
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22">
         <f>(0.0371688676604729*11200)+87.6253791319029</f>
-        <v>503.91669692919936</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
+      </c>
+      <c r="N13" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="21">
         <v>2019</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22">
         <f>(0.0403353472001603*11200)+110.691139006084</f>
-        <v>562.44702764787939</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15">
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22">
         <f>(0.0369312562247261*11200)+89.0839646051938</f>
-        <v>502.71403432212611</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15">
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22">
         <f>(0.0385164396410727*11200)+110.653044502527</f>
-        <v>542.03716848254123</v>
-      </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15">
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22">
         <f>(0.0377874550998704*11200)+96.1210640585739</f>
-        <v>519.34056117712237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      </c>
+      <c r="N14" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="21">
         <v>2020</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22">
         <f>(0.0388010237394817*11200)+111.343603401312</f>
-        <v>545.91506928350702</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15">
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22">
         <f>(0.0344999925379152*11200)+88.5996149904816</f>
-        <v>474.9995314151318</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15">
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22">
         <f>(0.0359962439875572*11200)+130.422891403929</f>
-        <v>533.5808240645697</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15">
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22">
         <f>(0.0355022360271926*11200)+98.5893727925558</f>
-        <v>496.21441629711296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
+      </c>
+      <c r="N15" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="21">
         <v>2021</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22">
         <f>(0.0361558727524009*11200)+109.776801708471</f>
-        <v>514.72257653536099</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15">
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22">
         <f>(0.0337794144251478*11200)+90.5685478863513</f>
-        <v>468.89798944800668</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15">
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22">
         <f>(0.0338012465856868*11200)+127.245822464087</f>
-        <v>505.8197842237791</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15">
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22">
         <f>(0.0341755981666232*11200)+98.9967691431617</f>
-        <v>481.7634686093416</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
+      </c>
+      <c r="N16" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="21">
         <v>2022</v>
       </c>
-      <c r="B23" s="15">
-        <v>898.72463243071013</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="B17" s="22">
+        <v>898.7246324307101</v>
+      </c>
+      <c r="C17" s="22">
         <v>1101.6478425319804</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D17" s="22">
         <v>1063.357062761741</v>
       </c>
-      <c r="E23" s="15">
-        <v>764.55080361126795</v>
-      </c>
-      <c r="F23" s="15">
-        <v>990.43047401888509</v>
-      </c>
-      <c r="G23" s="15">
-        <v>912.13717025507719</v>
-      </c>
-      <c r="H23" s="15">
-        <v>940.62030735631186</v>
-      </c>
-      <c r="I23" s="15">
-        <v>1028.8578427331529</v>
-      </c>
-      <c r="J23" s="15">
+      <c r="E17" s="22">
+        <v>764.550803611268</v>
+      </c>
+      <c r="F17" s="22">
+        <v>990.4304740188851</v>
+      </c>
+      <c r="G17" s="22">
+        <v>912.1371702550772</v>
+      </c>
+      <c r="H17" s="22">
+        <v>940.6203073563119</v>
+      </c>
+      <c r="I17" s="22">
+        <v>1028.857842733153</v>
+      </c>
+      <c r="J17" s="22">
         <v>1023.7099861275387</v>
       </c>
-      <c r="K23" s="15">
-        <v>784.99928089593448</v>
-      </c>
-      <c r="L23" s="15">
+      <c r="K17" s="22">
+        <v>784.9992808959345</v>
+      </c>
+      <c r="L17" s="22">
         <v>1018.3355672624086</v>
       </c>
-      <c r="M23" s="15">
-        <v>952.36599829985198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
+      <c r="M17" s="22">
+        <v>952.365998299852</v>
+      </c>
+      <c r="N17" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="21">
         <v>2023</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B18" s="22">
         <v>1102.1914508728453</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C18" s="22">
         <v>1177.0635572970289</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D18" s="22">
         <v>1168.8647811971198</v>
       </c>
-      <c r="E24" s="15">
-        <v>896.41008861037756</v>
-      </c>
-      <c r="F24" s="15">
+      <c r="E18" s="22">
+        <v>896.4100886103776</v>
+      </c>
+      <c r="F18" s="22">
         <v>1103.0442878974366</v>
       </c>
-      <c r="G24" s="15">
-        <v>1066.5030762077181</v>
-      </c>
-      <c r="H24" s="15">
+      <c r="G18" s="22">
+        <v>1066.503076207718</v>
+      </c>
+      <c r="H18" s="22">
         <v>1093.8854058562883</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I18" s="22">
         <v>1109.3859778664093</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J18" s="22">
         <v>1108.2062156861616</v>
       </c>
-      <c r="K24" s="15">
-        <v>943.69384716662296</v>
-      </c>
-      <c r="L24" s="15">
+      <c r="K18" s="22">
+        <v>943.693847166623</v>
+      </c>
+      <c r="L18" s="22">
         <v>1119.868284409818</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M18" s="22">
         <v>1093.9308228380594</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
+      <c r="N18" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="21">
         <v>2024</v>
       </c>
-      <c r="B25" s="15">
-        <v>849.46569931019258</v>
-      </c>
-      <c r="C25" s="15">
+      <c r="B19" s="22">
+        <v>849.4656993101926</v>
+      </c>
+      <c r="C19" s="22">
         <v>860.5263980256077</v>
       </c>
-      <c r="D25" s="15">
-        <v>859.89636344168287</v>
-      </c>
-      <c r="E25" s="15">
-        <v>794.83618650711855</v>
-      </c>
-      <c r="F25" s="15">
-        <v>819.46672961623847</v>
-      </c>
-      <c r="G25" s="15">
-        <v>812.97672080027769</v>
-      </c>
-      <c r="H25" s="15">
-        <v>790.70935880120169</v>
-      </c>
-      <c r="I25" s="15">
-        <v>763.28742416453622</v>
-      </c>
-      <c r="J25" s="15">
-        <v>764.24475291903059</v>
-      </c>
-      <c r="K25" s="15">
-        <v>797.19657401815016</v>
-      </c>
-      <c r="L25" s="15">
+      <c r="D19" s="22">
+        <v>859.8963634416829</v>
+      </c>
+      <c r="E19" s="22">
+        <v>794.8361865071186</v>
+      </c>
+      <c r="F19" s="22">
+        <v>819.4667296162385</v>
+      </c>
+      <c r="G19" s="22">
+        <v>812.9767208002777</v>
+      </c>
+      <c r="H19" s="22">
+        <v>790.7093588012017</v>
+      </c>
+      <c r="I19" s="22">
+        <v>763.2874241645362</v>
+      </c>
+      <c r="J19" s="22">
+        <v>764.2447529190306</v>
+      </c>
+      <c r="K19" s="22">
+        <v>797.1965740181502</v>
+      </c>
+      <c r="L19" s="22">
         <v>818.4859124401404</v>
       </c>
-      <c r="M25" s="15">
-        <v>814.19635543523964</v>
-      </c>
+      <c r="M19" s="22">
+        <v>814.1963554352396</v>
+      </c>
+      <c r="N19" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B11:F11"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B2:H2" r:id="rId1" display=" https://www.gov.uk/government/collections/quarterly-energy-prices  " xr:uid="{A5FBD0D3-CD9C-4F4B-9061-6DA3375A8B6C}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{70C7E826-AB93-4271-889A-BFF0D2BBC0D4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412DCA30-4CB2-4407-92F0-536BC8ED0932}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="8" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="23.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1275,11 +1128,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f>ROUND(Main!G15/11200, 4)</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <f>round(Main!G9/11200, 4)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1287,11 +1139,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <f>ROUND(Main!D15/11200, 4)</f>
-        <v>5.5300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <f>round(Main!D9/11200, 4)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1299,8 +1150,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <f>ROUND(Main!J15/11200, 4)</f>
-        <v>5.5100000000000003E-2</v>
+        <f>round(Main!J9/11200, 4)</f>
       </c>
     </row>
   </sheetData>
@@ -1309,25 +1159,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1195,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1351,8 +1203,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f>ROUND(Main!G16/11200, 4)</f>
-        <v>4.7199999999999999E-2</v>
+        <f>round(Main!G10/11200, 4)</f>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1360,7 +1211,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1368,8 +1219,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <f>ROUND(Main!D16/11200, 4)</f>
-        <v>5.2900000000000003E-2</v>
+        <f>round(Main!D10/11200, 4)</f>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1377,7 +1227,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1385,8 +1235,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <f>ROUND(Main!J16/11200, 4)</f>
-        <v>5.2900000000000003E-2</v>
+        <f>round(Main!J10/11200, 4)</f>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1394,7 +1243,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -1404,7 +1253,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -1414,7 +1263,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -1424,7 +1273,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -1434,7 +1283,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -1444,7 +1293,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -1454,7 +1303,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -1464,7 +1313,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -1474,7 +1323,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -1484,7 +1333,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -1494,7 +1343,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -1504,7 +1353,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -1514,7 +1363,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -1524,7 +1373,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -1534,7 +1383,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -1544,7 +1393,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -1554,7 +1403,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -1564,7 +1413,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -1574,7 +1423,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -1584,7 +1433,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -1594,7 +1443,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -1604,7 +1453,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -1620,25 +1469,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF563D3-DCDE-4A9B-A72A-26D78EE538D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1505,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1662,8 +1513,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f>ROUND(Main!G17/11200, 4)</f>
-        <v>4.2700000000000002E-2</v>
+        <f>round(Main!G11/11200, 4)</f>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1671,7 +1521,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1679,8 +1529,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <f>ROUND(Main!D17/11200, 4)</f>
-        <v>4.9099999999999998E-2</v>
+        <f>round(Main!D11/11200, 4)</f>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1688,7 +1537,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1696,8 +1545,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <f>ROUND(Main!J17/11200, 4)</f>
-        <v>4.9700000000000001E-2</v>
+        <f>round(Main!J11/11200, 4)</f>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1705,7 +1553,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -1715,7 +1563,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -1725,7 +1573,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -1735,7 +1583,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -1745,7 +1593,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -1755,7 +1603,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -1765,7 +1613,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -1775,7 +1623,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -1785,7 +1633,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -1795,7 +1643,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -1805,7 +1653,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -1815,7 +1663,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -1825,7 +1673,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -1835,7 +1683,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -1845,7 +1693,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -1855,7 +1703,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -1865,7 +1713,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -1875,7 +1723,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -1885,7 +1733,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -1895,7 +1743,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -1905,7 +1753,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -1915,7 +1763,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -1931,25 +1779,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F0BBD2-4D27-4C37-972A-25E4B4E49BCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1965,7 +1815,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1973,8 +1823,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f>ROUND(Main!G18/11200, 4)</f>
-        <v>4.2500000000000003E-2</v>
+        <f>round(Main!G12/11200, 4)</f>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1982,7 +1831,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1990,8 +1839,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <f>ROUND(Main!D18/11200, 4)</f>
-        <v>4.8399999999999999E-2</v>
+        <f>round(Main!D12/11200, 4)</f>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1999,7 +1847,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2007,8 +1855,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <f>ROUND(Main!J18/11200, 4)</f>
-        <v>4.4299999999999999E-2</v>
+        <f>round(Main!J12/11200, 4)</f>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2016,7 +1863,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -2026,7 +1873,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -2036,7 +1883,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -2046,7 +1893,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -2056,7 +1903,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -2066,7 +1913,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -2076,7 +1923,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -2086,7 +1933,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -2096,7 +1943,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -2106,7 +1953,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -2116,7 +1963,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -2126,7 +1973,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -2136,7 +1983,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -2146,7 +1993,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -2156,7 +2003,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -2166,7 +2013,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -2176,7 +2023,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -2186,7 +2033,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -2196,7 +2043,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -2206,7 +2053,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -2216,7 +2063,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -2226,7 +2073,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -2242,25 +2089,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33760D96-41A2-4D6D-97BD-2015399FDE2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2276,7 +2125,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2284,8 +2133,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f>ROUND(Main!G19/11200, 4)</f>
-        <v>4.3900000000000002E-2</v>
+        <f>round(Main!G13/11200, 4)</f>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2293,7 +2141,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2301,8 +2149,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <f>ROUND(Main!D19/11200, 4)</f>
-        <v>5.0099999999999999E-2</v>
+        <f>round(Main!D13/11200, 4)</f>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2310,7 +2157,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2318,8 +2165,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <f>ROUND(Main!J19/11200, 4)</f>
-        <v>4.3499999999999997E-2</v>
+        <f>round(Main!J13/11200, 4)</f>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2327,7 +2173,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -2337,7 +2183,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -2347,7 +2193,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -2357,7 +2203,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -2367,7 +2213,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -2377,7 +2223,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -2387,7 +2233,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -2397,7 +2243,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -2407,7 +2253,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -2417,7 +2263,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -2427,7 +2273,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -2437,7 +2283,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -2447,7 +2293,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -2457,7 +2303,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -2467,7 +2313,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -2477,7 +2323,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -2487,7 +2333,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -2497,7 +2343,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -2507,7 +2353,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -2517,7 +2363,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -2527,7 +2373,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -2537,7 +2383,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -2553,25 +2399,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56FE9DE-2237-43B9-9D58-31A95E1FEB2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2587,7 +2435,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2595,8 +2443,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f>ROUND(Main!G20/11200, 4)</f>
-        <v>4.4900000000000002E-2</v>
+        <f>round(Main!G14/11200, 4)</f>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2604,7 +2451,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2612,8 +2459,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <f>ROUND(Main!D20/11200, 4)</f>
-        <v>5.0200000000000002E-2</v>
+        <f>round(Main!D14/11200, 4)</f>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2621,7 +2467,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2629,8 +2475,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <f>ROUND(Main!J20/11200, 4)</f>
-        <v>4.8399999999999999E-2</v>
+        <f>round(Main!J14/11200, 4)</f>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2638,7 +2483,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -2648,7 +2493,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -2658,7 +2503,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -2668,7 +2513,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -2678,7 +2523,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -2688,7 +2533,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -2698,7 +2543,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -2708,7 +2553,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -2718,7 +2563,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -2728,7 +2573,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -2738,7 +2583,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -2748,7 +2593,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -2758,7 +2603,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -2768,7 +2613,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -2778,7 +2623,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -2788,7 +2633,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -2798,7 +2643,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -2808,7 +2653,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -2818,7 +2663,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -2828,7 +2673,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -2838,7 +2683,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -2848,7 +2693,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -2864,25 +2709,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFD5E10-7952-4D06-A64D-97F42500256D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2898,7 +2745,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2906,8 +2753,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f>ROUND(Main!G21/11200, 4)</f>
-        <v>4.24E-2</v>
+        <f>round(Main!G15/11200, 4)</f>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2915,7 +2761,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2923,8 +2769,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <f>ROUND(Main!D21/11200, 4)</f>
-        <v>4.87E-2</v>
+        <f>round(Main!D15/11200, 4)</f>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2932,7 +2777,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2940,8 +2785,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <f>ROUND(Main!J21/11200, 4)</f>
-        <v>4.7600000000000003E-2</v>
+        <f>round(Main!J15/11200, 4)</f>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2949,7 +2793,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -2959,7 +2803,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -2969,7 +2813,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -2979,7 +2823,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -2989,7 +2833,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -2999,7 +2843,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -3009,7 +2853,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -3019,7 +2863,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -3029,7 +2873,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -3039,7 +2883,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -3049,7 +2893,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -3059,7 +2903,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -3069,7 +2913,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -3079,7 +2923,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -3089,7 +2933,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -3099,7 +2943,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -3109,7 +2953,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -3119,7 +2963,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -3129,7 +2973,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -3139,7 +2983,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -3149,7 +2993,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -3159,7 +3003,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -3175,25 +3019,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CF2108-63C2-404E-80B3-40FBC54A274C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3209,7 +3055,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3217,8 +3063,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f>ROUND(Main!G22/11200, 4)</f>
-        <v>4.19E-2</v>
+        <f>round(Main!G16/11200, 4)</f>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3226,7 +3071,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3234,8 +3079,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <f>ROUND(Main!D22/11200, 4)</f>
-        <v>4.5999999999999999E-2</v>
+        <f>round(Main!D16/11200, 4)</f>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3243,7 +3087,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3251,8 +3095,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <f>ROUND(Main!J22/11200, 4)</f>
-        <v>4.5199999999999997E-2</v>
+        <f>round(Main!J16/11200, 4)</f>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3260,7 +3103,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -3270,7 +3113,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -3280,7 +3123,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -3290,7 +3133,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -3300,7 +3143,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -3310,7 +3153,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -3320,7 +3163,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -3330,7 +3173,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -3340,7 +3183,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -3350,7 +3193,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -3360,7 +3203,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -3370,7 +3213,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -3380,7 +3223,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -3390,7 +3233,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -3400,7 +3243,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -3410,7 +3253,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -3420,7 +3263,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -3430,7 +3273,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -3440,7 +3283,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -3450,7 +3293,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -3460,7 +3303,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -3470,7 +3313,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>

--- a/DATA/RAW/Gas_price_per_kWh.xlsx
+++ b/DATA/RAW/Gas_price_per_kWh.xlsx
@@ -1,23 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Households_energy_wellbeing_local_code\Households_energy_wellbeing\DATA\RAW\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F3F92D-B1AB-48D0-B6FB-8B2AF804E237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="36180" yWindow="-6735" windowWidth="23010" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Main"/>
-    <sheet r:id="rId2" sheetId="2" name="2014_gas_price_per_kWh"/>
-    <sheet r:id="rId3" sheetId="3" name="2015_gas_price_per_kWh"/>
-    <sheet r:id="rId4" sheetId="4" name="2016_gas_price_per_kWh"/>
-    <sheet r:id="rId5" sheetId="5" name="2017_gas_price_per_kWh"/>
-    <sheet r:id="rId6" sheetId="6" name="2018_gas_price_per_kWh"/>
-    <sheet r:id="rId7" sheetId="7" name="2019_gas_price_per_kWh"/>
-    <sheet r:id="rId8" sheetId="8" name="2020_gas_price_per_kWh"/>
-    <sheet r:id="rId9" sheetId="9" name="2021_gas_price_per_kWh"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="2014_gas_price_per_kWh" sheetId="2" r:id="rId2"/>
+    <sheet name="2015_gas_price_per_kWh" sheetId="3" r:id="rId3"/>
+    <sheet name="2016_gas_price_per_kWh" sheetId="4" r:id="rId4"/>
+    <sheet name="2017_gas_price_per_kWh" sheetId="5" r:id="rId5"/>
+    <sheet name="2018_gas_price_per_kWh" sheetId="6" r:id="rId6"/>
+    <sheet name="2019_gas_price_per_kWh" sheetId="7" r:id="rId7"/>
+    <sheet name="2020_gas_price_per_kWh" sheetId="8" r:id="rId8"/>
+    <sheet name="2021_gas_price_per_kWh" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -99,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
@@ -124,13 +143,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -141,6 +153,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,95 +202,94 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -281,10 +300,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -322,71 +341,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,7 +433,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -437,11 +456,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -450,13 +469,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -466,7 +485,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -475,7 +494,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -484,7 +503,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -492,10 +511,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -560,41 +579,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="24" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="24" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="24" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="24" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="24" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="24" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="24" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="24" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="24" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="24" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="24" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="24" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -604,7 +625,7 @@
       <c r="M1" s="10"/>
       <c r="N1" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -620,7 +641,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -636,7 +657,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -650,19 +671,18 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -670,446 +690,447 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="14" t="s">
+    </row>
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="14"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="44.25" customFormat="1" s="17">
-      <c r="A8" s="18" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:14" s="15" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="21">
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
         <v>2014</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19">
         <f>(0.04654199954987*11200)+98.0188836587237</f>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22">
+        <v>619.28927861726766</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19">
         <f>(0.0423071458525511*11200)+85.9942771692793</f>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22">
+        <v>559.83431071785162</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19">
         <f>(0.0463521819763419*11200)+97.5917036989395</f>
-      </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22">
+        <v>616.73614183396876</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19">
         <f>(0.0440929815476337*11200)+91.0818765671357</f>
-      </c>
-      <c r="N9" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="21">
+        <v>584.92326990063316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
         <v>2015</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19">
         <f>(0.0441826633130361*11200)+97.074973680749</f>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22">
+        <v>591.92080278675326</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19">
         <f>(0.0400202456654864*11200)+80.0993839014997</f>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22">
+        <v>528.32613535494738</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19">
         <f>(0.0441911509056778*11200)+98.0509575817429</f>
-      </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22">
+        <v>592.99184772533431</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19">
         <f>(0.0417496553757279*11200)+87.2947485750131</f>
-      </c>
-      <c r="N10" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="21">
+        <v>554.89088878316556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
         <v>2016</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19">
         <f>(0.0404195356312942*11200)+96.7922819044096</f>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22">
+        <v>549.49108097490466</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19">
         <f>(0.0356173235975374*11200)+79.3180642539186</f>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22">
+        <v>478.23208854633754</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19">
         <f>(0.0409253414878911*11200)+97.9060192080074</f>
-      </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22">
+        <v>556.2698438723877</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19">
         <f>(0.0375822179527467*11200)+86.3641891663012</f>
-      </c>
-      <c r="N11" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="21">
+        <v>507.28503023706423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
         <v>2017</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19">
         <f>(0.0397631336384324*11200)+97.2199088225742</f>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22">
+        <v>542.56700557301713</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19">
         <f>(0.0353942129139858*11200)+79.5295558633001</f>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22">
+        <v>475.94474049994108</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19">
         <f>(0.0356068634460833*11200)+97.7887593898721</f>
-      </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22">
+        <v>496.58562998600502</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19">
         <f>(0.0363664608221799*11200)+86.3669395613274</f>
-      </c>
-      <c r="N12" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="21">
+        <v>493.67130076974223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
         <v>2018</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19">
         <f>(0.0404066435604779*11200)+109.016940088396</f>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22">
+        <v>561.57134796574849</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19">
         <f>(0.0367664069510934*11200)+79.9964261864216</f>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22">
+        <v>491.7801840386677</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19">
         <f>(0.0349828922141822*11200)+95.3268856202185</f>
-      </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22">
+        <v>487.13527841905915</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19">
         <f>(0.0371688676604729*11200)+87.6253791319029</f>
-      </c>
-      <c r="N13" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="21">
+        <v>503.91669692919936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
         <v>2019</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19">
         <f>(0.0403353472001603*11200)+110.691139006084</f>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22">
+        <v>562.44702764787939</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19">
         <f>(0.0369312562247261*11200)+89.0839646051938</f>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22">
+        <v>502.71403432212611</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19">
         <f>(0.0385164396410727*11200)+110.653044502527</f>
-      </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22">
+        <v>542.03716848254123</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19">
         <f>(0.0377874550998704*11200)+96.1210640585739</f>
-      </c>
-      <c r="N14" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="21">
+        <v>519.34056117712237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
         <v>2020</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19">
         <f>(0.0388010237394817*11200)+111.343603401312</f>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22">
+        <v>545.91506928350702</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19">
         <f>(0.0344999925379152*11200)+88.5996149904816</f>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22">
+        <v>474.9995314151318</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19">
         <f>(0.0359962439875572*11200)+130.422891403929</f>
-      </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22">
+        <v>533.5808240645697</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19">
         <f>(0.0355022360271926*11200)+98.5893727925558</f>
-      </c>
-      <c r="N15" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="21">
+        <v>496.21441629711296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
         <v>2021</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19">
         <f>(0.0361558727524009*11200)+109.776801708471</f>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22">
+        <v>514.72257653536099</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19">
         <f>(0.0337794144251478*11200)+90.5685478863513</f>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22">
+        <v>468.89798944800668</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19">
         <f>(0.0338012465856868*11200)+127.245822464087</f>
-      </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22">
+        <v>505.8197842237791</v>
+      </c>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19">
         <f>(0.0341755981666232*11200)+98.9967691431617</f>
-      </c>
-      <c r="N16" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="21">
+        <v>481.7634686093416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
         <v>2022</v>
       </c>
-      <c r="B17" s="22">
-        <v>898.7246324307101</v>
-      </c>
-      <c r="C17" s="22">
+      <c r="B17" s="19">
+        <v>898.72463243071013</v>
+      </c>
+      <c r="C17" s="19">
         <v>1101.6478425319804</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="19">
         <v>1063.357062761741</v>
       </c>
-      <c r="E17" s="22">
-        <v>764.550803611268</v>
-      </c>
-      <c r="F17" s="22">
-        <v>990.4304740188851</v>
-      </c>
-      <c r="G17" s="22">
-        <v>912.1371702550772</v>
-      </c>
-      <c r="H17" s="22">
-        <v>940.6203073563119</v>
-      </c>
-      <c r="I17" s="22">
-        <v>1028.857842733153</v>
-      </c>
-      <c r="J17" s="22">
+      <c r="E17" s="19">
+        <v>764.55080361126795</v>
+      </c>
+      <c r="F17" s="19">
+        <v>990.43047401888509</v>
+      </c>
+      <c r="G17" s="19">
+        <v>912.13717025507719</v>
+      </c>
+      <c r="H17" s="19">
+        <v>940.62030735631186</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1028.8578427331529</v>
+      </c>
+      <c r="J17" s="19">
         <v>1023.7099861275387</v>
       </c>
-      <c r="K17" s="22">
-        <v>784.9992808959345</v>
-      </c>
-      <c r="L17" s="22">
+      <c r="K17" s="19">
+        <v>784.99928089593448</v>
+      </c>
+      <c r="L17" s="19">
         <v>1018.3355672624086</v>
       </c>
-      <c r="M17" s="22">
-        <v>952.365998299852</v>
-      </c>
-      <c r="N17" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="21">
+      <c r="M17" s="19">
+        <v>952.36599829985198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
         <v>2023</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="19">
         <v>1102.1914508728453</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="19">
         <v>1177.0635572970289</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="19">
         <v>1168.8647811971198</v>
       </c>
-      <c r="E18" s="22">
-        <v>896.4100886103776</v>
-      </c>
-      <c r="F18" s="22">
+      <c r="E18" s="19">
+        <v>896.41008861037756</v>
+      </c>
+      <c r="F18" s="19">
         <v>1103.0442878974366</v>
       </c>
-      <c r="G18" s="22">
-        <v>1066.503076207718</v>
-      </c>
-      <c r="H18" s="22">
+      <c r="G18" s="19">
+        <v>1066.5030762077181</v>
+      </c>
+      <c r="H18" s="19">
         <v>1093.8854058562883</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="19">
         <v>1109.3859778664093</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="19">
         <v>1108.2062156861616</v>
       </c>
-      <c r="K18" s="22">
-        <v>943.693847166623</v>
-      </c>
-      <c r="L18" s="22">
+      <c r="K18" s="19">
+        <v>943.69384716662296</v>
+      </c>
+      <c r="L18" s="19">
         <v>1119.868284409818</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="19">
         <v>1093.9308228380594</v>
       </c>
-      <c r="N18" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="21">
+    </row>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
         <v>2024</v>
       </c>
-      <c r="B19" s="22">
-        <v>849.4656993101926</v>
-      </c>
-      <c r="C19" s="22">
+      <c r="B19" s="19">
+        <v>849.46569931019258</v>
+      </c>
+      <c r="C19" s="19">
         <v>860.5263980256077</v>
       </c>
-      <c r="D19" s="22">
-        <v>859.8963634416829</v>
-      </c>
-      <c r="E19" s="22">
-        <v>794.8361865071186</v>
-      </c>
-      <c r="F19" s="22">
-        <v>819.4667296162385</v>
-      </c>
-      <c r="G19" s="22">
-        <v>812.9767208002777</v>
-      </c>
-      <c r="H19" s="22">
-        <v>790.7093588012017</v>
-      </c>
-      <c r="I19" s="22">
-        <v>763.2874241645362</v>
-      </c>
-      <c r="J19" s="22">
-        <v>764.2447529190306</v>
-      </c>
-      <c r="K19" s="22">
-        <v>797.1965740181502</v>
-      </c>
-      <c r="L19" s="22">
+      <c r="D19" s="19">
+        <v>859.89636344168287</v>
+      </c>
+      <c r="E19" s="19">
+        <v>794.83618650711855</v>
+      </c>
+      <c r="F19" s="19">
+        <v>819.46672961623847</v>
+      </c>
+      <c r="G19" s="19">
+        <v>812.97672080027769</v>
+      </c>
+      <c r="H19" s="19">
+        <v>790.70935880120169</v>
+      </c>
+      <c r="I19" s="19">
+        <v>763.28742416453622</v>
+      </c>
+      <c r="J19" s="19">
+        <v>764.24475291903059</v>
+      </c>
+      <c r="K19" s="19">
+        <v>797.19657401815016</v>
+      </c>
+      <c r="L19" s="19">
         <v>818.4859124401404</v>
       </c>
-      <c r="M19" s="22">
-        <v>814.1963554352396</v>
-      </c>
-      <c r="N19" s="13"/>
+      <c r="M19" s="19">
+        <v>814.19635543523964</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{A095AAFD-3360-408A-97EB-0415A039E35E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="8" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="25.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1128,10 +1149,11 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f>round(Main!G9/11200, 4)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <f>ROUND(Main!G9/11200, 4)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1139,10 +1161,11 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <f>round(Main!D9/11200, 4)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <f>ROUND(Main!D9/11200, 4)</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1150,7 +1173,8 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <f>round(Main!J9/11200, 4)</f>
+        <f>ROUND(Main!J9/11200, 4)</f>
+        <v>5.5100000000000003E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1167,19 +1191,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1195,7 +1215,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1203,7 +1223,8 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f>round(Main!G10/11200, 4)</f>
+        <f>ROUND(Main!G10/11200, 4)</f>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1211,7 +1232,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1219,7 +1240,8 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <f>round(Main!D10/11200, 4)</f>
+        <f>ROUND(Main!D10/11200, 4)</f>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1227,7 +1249,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1235,7 +1257,8 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <f>round(Main!J10/11200, 4)</f>
+        <f>ROUND(Main!J10/11200, 4)</f>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1243,7 +1266,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -1253,7 +1276,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -1263,7 +1286,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -1273,7 +1296,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -1283,7 +1306,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -1293,7 +1316,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -1303,7 +1326,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -1313,7 +1336,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -1323,7 +1346,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -1333,7 +1356,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -1343,7 +1366,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -1353,7 +1376,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -1363,7 +1386,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -1373,7 +1396,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -1383,7 +1406,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -1393,7 +1416,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -1403,7 +1426,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -1413,7 +1436,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -1423,7 +1446,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -1433,7 +1456,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -1443,7 +1466,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -1453,7 +1476,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -1469,7 +1492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1477,19 +1500,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1524,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1513,7 +1532,8 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f>round(Main!G11/11200, 4)</f>
+        <f>ROUND(Main!G11/11200, 4)</f>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1521,7 +1541,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1529,7 +1549,8 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <f>round(Main!D11/11200, 4)</f>
+        <f>ROUND(Main!D11/11200, 4)</f>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1537,7 +1558,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1545,7 +1566,8 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <f>round(Main!J11/11200, 4)</f>
+        <f>ROUND(Main!J11/11200, 4)</f>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1553,7 +1575,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -1563,7 +1585,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -1573,7 +1595,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -1583,7 +1605,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -1593,7 +1615,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -1603,7 +1625,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -1613,7 +1635,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -1623,7 +1645,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -1633,7 +1655,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -1643,7 +1665,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -1653,7 +1675,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -1663,7 +1685,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -1673,7 +1695,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -1683,7 +1705,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -1693,7 +1715,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -1703,7 +1725,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -1713,7 +1735,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -1723,7 +1745,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -1733,7 +1755,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -1743,7 +1765,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -1753,7 +1775,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -1763,7 +1785,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -1779,7 +1801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1787,19 +1809,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +1833,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1823,7 +1841,8 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f>round(Main!G12/11200, 4)</f>
+        <f>ROUND(Main!G12/11200, 4)</f>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1831,7 +1850,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1839,7 +1858,8 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <f>round(Main!D12/11200, 4)</f>
+        <f>ROUND(Main!D12/11200, 4)</f>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1847,7 +1867,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1855,7 +1875,8 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <f>round(Main!J12/11200, 4)</f>
+        <f>ROUND(Main!J12/11200, 4)</f>
+        <v>4.4299999999999999E-2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1863,7 +1884,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -1873,7 +1894,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -1883,7 +1904,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -1893,7 +1914,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -1903,7 +1924,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -1913,7 +1934,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -1923,7 +1944,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -1933,7 +1954,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -1943,7 +1964,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -1953,7 +1974,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -1963,7 +1984,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -1973,7 +1994,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -1983,7 +2004,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -1993,7 +2014,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -2003,7 +2024,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -2013,7 +2034,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -2023,7 +2044,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -2033,7 +2054,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -2043,7 +2064,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -2053,7 +2074,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -2063,7 +2084,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -2073,7 +2094,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -2089,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2097,19 +2118,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2125,7 +2142,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2133,7 +2150,8 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f>round(Main!G13/11200, 4)</f>
+        <f>ROUND(Main!G13/11200, 4)</f>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2141,7 +2159,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2149,7 +2167,8 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <f>round(Main!D13/11200, 4)</f>
+        <f>ROUND(Main!D13/11200, 4)</f>
+        <v>5.0099999999999999E-2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2157,7 +2176,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2165,7 +2184,8 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <f>round(Main!J13/11200, 4)</f>
+        <f>ROUND(Main!J13/11200, 4)</f>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2173,7 +2193,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -2183,7 +2203,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -2193,7 +2213,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -2203,7 +2223,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -2213,7 +2233,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -2223,7 +2243,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -2233,7 +2253,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -2243,7 +2263,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -2253,7 +2273,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -2263,7 +2283,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -2273,7 +2293,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -2283,7 +2303,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -2293,7 +2313,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -2303,7 +2323,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -2313,7 +2333,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -2323,7 +2343,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -2333,7 +2353,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -2343,7 +2363,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -2353,7 +2373,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -2363,7 +2383,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -2373,7 +2393,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -2383,7 +2403,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -2399,7 +2419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2407,19 +2427,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2451,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2443,7 +2459,8 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f>round(Main!G14/11200, 4)</f>
+        <f>ROUND(Main!G14/11200, 4)</f>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2451,7 +2468,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2459,7 +2476,8 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <f>round(Main!D14/11200, 4)</f>
+        <f>ROUND(Main!D14/11200, 4)</f>
+        <v>5.0200000000000002E-2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2467,7 +2485,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2475,7 +2493,8 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <f>round(Main!J14/11200, 4)</f>
+        <f>ROUND(Main!J14/11200, 4)</f>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2483,7 +2502,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -2493,7 +2512,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -2503,7 +2522,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -2513,7 +2532,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -2523,7 +2542,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -2533,7 +2552,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -2543,7 +2562,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -2553,7 +2572,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -2563,7 +2582,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -2573,7 +2592,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -2583,7 +2602,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -2593,7 +2612,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -2603,7 +2622,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -2613,7 +2632,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -2623,7 +2642,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -2633,7 +2652,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -2643,7 +2662,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -2653,7 +2672,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -2663,7 +2682,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -2673,7 +2692,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -2683,7 +2702,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -2693,7 +2712,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -2709,7 +2728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2717,19 +2736,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2745,7 +2760,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2753,7 +2768,8 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f>round(Main!G15/11200, 4)</f>
+        <f>ROUND(Main!G15/11200, 4)</f>
+        <v>4.24E-2</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2761,7 +2777,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2769,7 +2785,8 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <f>round(Main!D15/11200, 4)</f>
+        <f>ROUND(Main!D15/11200, 4)</f>
+        <v>4.87E-2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2777,7 +2794,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2785,7 +2802,8 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <f>round(Main!J15/11200, 4)</f>
+        <f>ROUND(Main!J15/11200, 4)</f>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2793,7 +2811,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -2803,7 +2821,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -2813,7 +2831,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -2823,7 +2841,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -2833,7 +2851,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -2843,7 +2861,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -2853,7 +2871,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -2863,7 +2881,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -2873,7 +2891,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -2883,7 +2901,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -2893,7 +2911,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -2903,7 +2921,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -2913,7 +2931,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -2923,7 +2941,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -2933,7 +2951,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -2943,7 +2961,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -2953,7 +2971,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -2963,7 +2981,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -2973,7 +2991,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -2983,7 +3001,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -2993,7 +3011,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -3003,7 +3021,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -3019,7 +3037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3027,19 +3045,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3055,7 +3069,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3063,7 +3077,8 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f>round(Main!G16/11200, 4)</f>
+        <f>ROUND(Main!G16/11200, 4)</f>
+        <v>4.19E-2</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3071,7 +3086,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3079,7 +3094,8 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <f>round(Main!D16/11200, 4)</f>
+        <f>ROUND(Main!D16/11200, 4)</f>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3087,7 +3103,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3095,7 +3111,8 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <f>round(Main!J16/11200, 4)</f>
+        <f>ROUND(Main!J16/11200, 4)</f>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3103,7 +3120,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -3113,7 +3130,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -3123,7 +3140,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -3133,7 +3150,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -3143,7 +3160,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -3153,7 +3170,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -3163,7 +3180,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -3173,7 +3190,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -3183,7 +3200,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -3193,7 +3210,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -3203,7 +3220,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -3213,7 +3230,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -3223,7 +3240,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -3233,7 +3250,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -3243,7 +3260,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -3253,7 +3270,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -3263,7 +3280,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -3273,7 +3290,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -3283,7 +3300,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -3293,7 +3310,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -3303,7 +3320,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -3313,7 +3330,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
